--- a/artfynd/A 30840-2023.xlsx
+++ b/artfynd/A 30840-2023.xlsx
@@ -1840,7 +1840,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111378954</v>
+        <v>111378856</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -1888,10 +1888,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>505590.6913760683</v>
+        <v>505494.3524330241</v>
       </c>
       <c r="R12" t="n">
-        <v>6913009.17353364</v>
+        <v>6913043.848162009</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111378874</v>
+        <v>111378933</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>505592.4968292552</v>
+        <v>505597.6535686332</v>
       </c>
       <c r="R14" t="n">
-        <v>6913042.152801346</v>
+        <v>6913018.009825628</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111378856</v>
+        <v>111378866</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>505494.3524330241</v>
+        <v>505492.5216403615</v>
       </c>
       <c r="R15" t="n">
-        <v>6913043.848162009</v>
+        <v>6913025.731493607</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111378946</v>
+        <v>111378893</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>505602.791734456</v>
+        <v>505612.5119866763</v>
       </c>
       <c r="R16" t="n">
-        <v>6913005.013642685</v>
+        <v>6913033.361683531</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111378866</v>
+        <v>111378874</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -2493,10 +2493,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>505492.5216403615</v>
+        <v>505592.4968292552</v>
       </c>
       <c r="R17" t="n">
-        <v>6913025.731493607</v>
+        <v>6913042.152801346</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111378933</v>
+        <v>111378946</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -2735,10 +2735,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>505597.6535686332</v>
+        <v>505602.791734456</v>
       </c>
       <c r="R19" t="n">
-        <v>6913018.009825628</v>
+        <v>6913005.013642685</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111378893</v>
+        <v>111378954</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -2856,10 +2856,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>505612.5119866763</v>
+        <v>505590.6913760683</v>
       </c>
       <c r="R20" t="n">
-        <v>6913033.361683531</v>
+        <v>6913009.17353364</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>

--- a/artfynd/A 30840-2023.xlsx
+++ b/artfynd/A 30840-2023.xlsx
@@ -1961,7 +1961,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111378913</v>
+        <v>111378874</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>505607.407264018</v>
+        <v>505592.4968292552</v>
       </c>
       <c r="R13" t="n">
-        <v>6913026.386327411</v>
+        <v>6913042.152801346</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111378933</v>
+        <v>111378964</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>505597.6535686332</v>
+        <v>505627.1571942444</v>
       </c>
       <c r="R14" t="n">
-        <v>6913018.009825628</v>
+        <v>6912898.692122459</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111378866</v>
+        <v>111378913</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>505492.5216403615</v>
+        <v>505607.407264018</v>
       </c>
       <c r="R15" t="n">
-        <v>6913025.731493607</v>
+        <v>6913026.386327411</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111378874</v>
+        <v>111378946</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -2493,10 +2493,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>505592.4968292552</v>
+        <v>505602.791734456</v>
       </c>
       <c r="R17" t="n">
-        <v>6913042.152801346</v>
+        <v>6913005.013642685</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111378884</v>
+        <v>111378866</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -2614,10 +2614,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>505596.2310213979</v>
+        <v>505492.5216403615</v>
       </c>
       <c r="R18" t="n">
-        <v>6913034.263345711</v>
+        <v>6913025.731493607</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111378946</v>
+        <v>111378884</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -2735,10 +2735,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>505602.791734456</v>
+        <v>505596.2310213979</v>
       </c>
       <c r="R19" t="n">
-        <v>6913005.013642685</v>
+        <v>6913034.263345711</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111378954</v>
+        <v>111378933</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -2856,10 +2856,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>505590.6913760683</v>
+        <v>505597.6535686332</v>
       </c>
       <c r="R20" t="n">
-        <v>6913009.17353364</v>
+        <v>6913018.009825628</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111378964</v>
+        <v>111378954</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>505627.1571942444</v>
+        <v>505590.6913760683</v>
       </c>
       <c r="R21" t="n">
-        <v>6912898.692122459</v>
+        <v>6913009.17353364</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>

--- a/artfynd/A 30840-2023.xlsx
+++ b/artfynd/A 30840-2023.xlsx
@@ -1840,7 +1840,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111378856</v>
+        <v>111378933</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -1888,10 +1888,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>505494.3524330241</v>
+        <v>505597.6535686332</v>
       </c>
       <c r="R12" t="n">
-        <v>6913043.848162009</v>
+        <v>6913018.009825628</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111378874</v>
+        <v>111378946</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>505592.4968292552</v>
+        <v>505602.791734456</v>
       </c>
       <c r="R13" t="n">
-        <v>6913042.152801346</v>
+        <v>6913005.013642685</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111378964</v>
+        <v>111378913</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>505627.1571942444</v>
+        <v>505607.407264018</v>
       </c>
       <c r="R14" t="n">
-        <v>6912898.692122459</v>
+        <v>6913026.386327411</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111378913</v>
+        <v>111378964</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>505607.407264018</v>
+        <v>505627.1571942444</v>
       </c>
       <c r="R15" t="n">
-        <v>6913026.386327411</v>
+        <v>6912898.692122459</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111378893</v>
+        <v>111378884</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>505612.5119866763</v>
+        <v>505596.2310213979</v>
       </c>
       <c r="R16" t="n">
-        <v>6913033.361683531</v>
+        <v>6913034.263345711</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111378946</v>
+        <v>111378856</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -2493,10 +2493,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>505602.791734456</v>
+        <v>505494.3524330241</v>
       </c>
       <c r="R17" t="n">
-        <v>6913005.013642685</v>
+        <v>6913043.848162009</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111378866</v>
+        <v>111378874</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -2614,10 +2614,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>505492.5216403615</v>
+        <v>505592.4968292552</v>
       </c>
       <c r="R18" t="n">
-        <v>6913025.731493607</v>
+        <v>6913042.152801346</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111378884</v>
+        <v>111378954</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -2735,10 +2735,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>505596.2310213979</v>
+        <v>505590.6913760683</v>
       </c>
       <c r="R19" t="n">
-        <v>6913034.263345711</v>
+        <v>6913009.17353364</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111378933</v>
+        <v>111378893</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2856,10 +2856,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>505597.6535686332</v>
+        <v>505612.5119866763</v>
       </c>
       <c r="R20" t="n">
-        <v>6913018.009825628</v>
+        <v>6913033.361683531</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111378954</v>
+        <v>111378866</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>505590.6913760683</v>
+        <v>505492.5216403615</v>
       </c>
       <c r="R21" t="n">
-        <v>6913009.17353364</v>
+        <v>6913025.731493607</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>

--- a/artfynd/A 30840-2023.xlsx
+++ b/artfynd/A 30840-2023.xlsx
@@ -1840,7 +1840,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111378933</v>
+        <v>111378946</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -1888,10 +1888,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>505597.6535686332</v>
+        <v>505602.791734456</v>
       </c>
       <c r="R12" t="n">
-        <v>6913018.009825628</v>
+        <v>6913005.013642685</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111378946</v>
+        <v>111378856</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>505602.791734456</v>
+        <v>505494.3524330241</v>
       </c>
       <c r="R13" t="n">
-        <v>6913005.013642685</v>
+        <v>6913043.848162009</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111378913</v>
+        <v>111378884</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>505607.407264018</v>
+        <v>505596.2310213979</v>
       </c>
       <c r="R14" t="n">
-        <v>6913026.386327411</v>
+        <v>6913034.263345711</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111378964</v>
+        <v>111378874</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>505627.1571942444</v>
+        <v>505592.4968292552</v>
       </c>
       <c r="R15" t="n">
-        <v>6912898.692122459</v>
+        <v>6913042.152801346</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111378884</v>
+        <v>111378866</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>505596.2310213979</v>
+        <v>505492.5216403615</v>
       </c>
       <c r="R16" t="n">
-        <v>6913034.263345711</v>
+        <v>6913025.731493607</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111378856</v>
+        <v>111378913</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -2493,10 +2493,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>505494.3524330241</v>
+        <v>505607.407264018</v>
       </c>
       <c r="R17" t="n">
-        <v>6913043.848162009</v>
+        <v>6913026.386327411</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111378874</v>
+        <v>111378893</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -2614,10 +2614,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>505592.4968292552</v>
+        <v>505612.5119866763</v>
       </c>
       <c r="R18" t="n">
-        <v>6913042.152801346</v>
+        <v>6913033.361683531</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111378954</v>
+        <v>111378933</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -2735,10 +2735,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>505590.6913760683</v>
+        <v>505597.6535686332</v>
       </c>
       <c r="R19" t="n">
-        <v>6913009.17353364</v>
+        <v>6913018.009825628</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111378893</v>
+        <v>111378964</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -2856,10 +2856,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>505612.5119866763</v>
+        <v>505627.1571942444</v>
       </c>
       <c r="R20" t="n">
-        <v>6913033.361683531</v>
+        <v>6912898.692122459</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111378866</v>
+        <v>111378954</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>505492.5216403615</v>
+        <v>505590.6913760683</v>
       </c>
       <c r="R21" t="n">
-        <v>6913025.731493607</v>
+        <v>6913009.17353364</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
